--- a/Tesztnapló.xlsx
+++ b/Tesztnapló.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzhal\Documents\GitHub\jogositvany-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B78720-8FE0-4B5A-9BB2-66B2D395BDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D22360-84A2-4229-B8E3-5C517875E530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,9 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +407,7 @@
   <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +417,7 @@
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -445,28 +450,40 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>2</v>
+      <c r="G2" s="2">
+        <v>45973</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="G3" s="2">
+        <v>45973</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="G4" s="2">
+        <v>45973</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="G5" s="2">
+        <v>45973</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45973</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
